--- a/InputData/bldgs/PCFURfE/Perc Components Fuel Use Reduction for Electricity.xlsx
+++ b/InputData/bldgs/PCFURfE/Perc Components Fuel Use Reduction for Electricity.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="50" windowWidth="24920" windowHeight="10310" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="19440" windowHeight="10305" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="17" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="90">
   <si>
     <t>For heating, the calculation is as follows:</t>
   </si>
@@ -126,21 +126,6 @@
     <t>Need to account for future deployment schedule to properly collapse current and future prices into a single parameter.</t>
   </si>
   <si>
-    <t>Weighting for weighted cost assuming policy implication schedule ramps up to full strength in 2025.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate based on policy schedule. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Because the stock turnover result in constant % change year-over-year, the prodedure need only consider the policy schedule to </t>
-  </si>
-  <si>
-    <t xml:space="preserve">account for deployment over time. </t>
-  </si>
-  <si>
-    <t>policy strength</t>
-  </si>
-  <si>
     <t>policy strength over time</t>
   </si>
   <si>
@@ -249,45 +234,15 @@
     <t>other</t>
   </si>
   <si>
-    <t>Efficiency improvement in air conditioninig due to air source heat pump must be handled by a different policy variable.</t>
-  </si>
-  <si>
     <t xml:space="preserve">If a building component energy demand is exclusively electricity, as with air conditioning, setting this variable to a nonzero value makes no difference in energy use. </t>
   </si>
   <si>
-    <t>Where installed as an alternative to conventional air conditioning, produces energy savings.   Hoewever,</t>
-  </si>
-  <si>
     <t>California actual efficiency likely great than rated value based on:</t>
   </si>
   <si>
-    <t>Approach to handling "other"  -- lacking data for this, but it is not possible to exclude from the electrification policy, which applies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uniformly across fossil-fuel using building components. </t>
-  </si>
-  <si>
-    <t>To solve this, use the same efficiency and cost values as for "appliances," meanwhile bound penetration of the policy</t>
-  </si>
-  <si>
-    <t>so that the total natural gas used is less than the total for water heating and space heating, the two technologies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">that have been specified in detail. </t>
-  </si>
-  <si>
     <t>Efficiency</t>
   </si>
   <si>
-    <t xml:space="preserve"> This effect would have to be handled / incorporated through the building codes and standards policy lever affecting electricity demand for AC. </t>
-  </si>
-  <si>
-    <t>Air pump related cooling efficiency gain is assumed.</t>
-  </si>
-  <si>
-    <t>use this as a proxy for weight in final stock</t>
-  </si>
-  <si>
     <t>air heat pump</t>
   </si>
   <si>
@@ -309,10 +264,34 @@
     <t>Weighted average efficiency</t>
   </si>
   <si>
-    <t xml:space="preserve"> This effect would have to be handled / incorporated through the building codes and standards policy lever affecting electricity demand for AC.   Initially, we are not counting it, as a rebuff to any assertions of excessive optimism. </t>
-  </si>
-  <si>
     <t>later years</t>
+  </si>
+  <si>
+    <t>An advance heat pump offers efficiency gains over conventional air conditioning units.</t>
+  </si>
+  <si>
+    <t>The effect is calculated on the "Efficiency implications" worksheet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">However, this variable only applies to fuel savings due to fuel switching. </t>
+  </si>
+  <si>
+    <t>Instead, we chose to hold aside these unaccounted for savings provide a margin of certainty that costs have not been underestimated.</t>
+  </si>
+  <si>
+    <t>Air conditioning efficiency effect</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Another option would be to incorporate this effect the appliance standards policy lever affecting electricity demand for AC. </t>
+  </si>
+  <si>
+    <t>Assumed policy strength</t>
+  </si>
+  <si>
+    <t>Even though calculated, note it is not possible to include this effect via this variable</t>
+  </si>
+  <si>
+    <t>Background note</t>
   </si>
 </sst>
 </file>
@@ -696,7 +675,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,7 +940,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -971,7 +950,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -983,6 +961,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="56">
     <cellStyle name="20% - Accent1 2" xfId="4"/>
@@ -1467,227 +1455,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
       <c r="B6">
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
       <c r="B7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
       <c r="B11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
       <c r="B12">
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
       <c r="B13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-    </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-    </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="11"/>
-    </row>
-    <row r="20" spans="1:16" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-    </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" s="10">
-        <f>'Inputs and Initial Calcs'!$B$26</f>
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="C22" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-    </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+    </row>
+    <row r="17" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="12"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="12"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="12"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="12"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1702,14 +1645,14 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1723,7 +1666,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1731,7 +1674,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1739,7 +1682,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1747,7 +1690,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B6">
         <f>'Efficiency implications'!$B$4</f>
@@ -1756,7 +1699,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B7">
         <f>'Efficiency implications'!$B$4</f>
@@ -1770,85 +1713,96 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X15"/>
+  <dimension ref="A1:AI23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <f>(B11-B14)/B11</f>
         <v>0.76020521161967547</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <f>'Inputs and Initial Calcs'!$B$26</f>
         <v>0.38461538461538464</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C3" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <f>(B12-B15)/B12</f>
         <v>0.84083226115038046</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>'weighted average of time series'!A1</f>
         <v>Weighted average efficiency</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>'weighted average of time series'!A2</f>
         <v>air space heat pump</v>
@@ -1858,7 +1812,7 @@
         <v>3.3361859338292472</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>'weighted average of time series'!A3</f>
         <v>heat pump water heater</v>
@@ -1868,22 +1822,55 @@
         <v>3.8952617187442189</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B14">
         <f>'Inputs and Initial Calcs'!$B$12</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B15">
         <v>0.62</v>
       </c>
+    </row>
+    <row r="17" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="11"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="11"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1894,50 +1881,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.453125" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:4" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:4" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:4" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:4" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1945,7 +1932,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1954,91 +1941,91 @@
         <v>3.0773739742086752</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:2" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:2" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:2" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:2" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="10">
+      <c r="B26" s="9">
         <f>(18-13)/13</f>
         <v>0.38461538461538464</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B35">
         <v>0.62</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B36">
         <v>3.7</v>
@@ -2056,139 +2043,139 @@
   <dimension ref="A1:AI32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <f t="shared" ref="B2:B3" si="0">B31</f>
         <v>3.3361859338292472</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-    </row>
-    <row r="3" spans="1:35" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <f t="shared" si="0"/>
         <v>3.8952617187442189</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-    </row>
-    <row r="4" spans="1:35" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-    </row>
-    <row r="5" spans="1:35" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-    </row>
-    <row r="6" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+    </row>
+    <row r="4" spans="1:35" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+    </row>
+    <row r="5" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2017</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
-    </row>
-    <row r="7" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B7">
         <f>'Inputs and Initial Calcs'!$B$13</f>
         <v>3.0773739742086752</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-    </row>
-    <row r="8" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -2196,319 +2183,319 @@
         <f>'Inputs and Initial Calcs'!$B$36</f>
         <v>3.7</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-    </row>
-    <row r="9" spans="1:35" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:35" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10">
-        <f>'method collapsing time series'!E10</f>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9">
+        <f>'method collapsing time series'!E3</f>
         <v>2020</v>
       </c>
-      <c r="F10" s="10">
-        <f>'method collapsing time series'!F10</f>
+      <c r="F10" s="9">
+        <f>'method collapsing time series'!F3</f>
         <v>2021</v>
       </c>
-      <c r="G10" s="10">
-        <f>'method collapsing time series'!G10</f>
+      <c r="G10" s="9">
+        <f>'method collapsing time series'!G3</f>
         <v>2022</v>
       </c>
-      <c r="H10" s="10">
-        <f>'method collapsing time series'!H10</f>
+      <c r="H10" s="9">
+        <f>'method collapsing time series'!H3</f>
         <v>2023</v>
       </c>
-      <c r="I10" s="10">
-        <f>'method collapsing time series'!I10</f>
+      <c r="I10" s="9">
+        <f>'method collapsing time series'!I3</f>
         <v>2024</v>
       </c>
-      <c r="J10" s="10">
-        <f>'method collapsing time series'!J10</f>
+      <c r="J10" s="9">
+        <f>'method collapsing time series'!J3</f>
         <v>2025</v>
       </c>
-      <c r="K10" s="10">
-        <f>'method collapsing time series'!K10</f>
+      <c r="K10" s="9">
+        <f>'method collapsing time series'!K3</f>
         <v>2026</v>
       </c>
-      <c r="L10" s="10">
-        <f>'method collapsing time series'!L10</f>
+      <c r="L10" s="9">
+        <f>'method collapsing time series'!L3</f>
         <v>2027</v>
       </c>
-      <c r="M10" s="10">
-        <f>'method collapsing time series'!M10</f>
+      <c r="M10" s="9">
+        <f>'method collapsing time series'!M3</f>
         <v>2028</v>
       </c>
-      <c r="N10" s="10">
-        <f>'method collapsing time series'!N10</f>
+      <c r="N10" s="9">
+        <f>'method collapsing time series'!N3</f>
         <v>2029</v>
       </c>
-      <c r="O10" s="10">
-        <f>'method collapsing time series'!O10</f>
+      <c r="O10" s="9">
+        <f>'method collapsing time series'!O3</f>
         <v>2030</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10">
-        <f>'method collapsing time series'!E11</f>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9">
+        <f>'method collapsing time series'!E4</f>
         <v>9.0909090999999997E-2</v>
       </c>
-      <c r="F11" s="10">
-        <f>'method collapsing time series'!F11</f>
+      <c r="F11" s="9">
+        <f>'method collapsing time series'!F4</f>
         <v>0.18181818199999999</v>
       </c>
       <c r="G11" s="2">
-        <f>'method collapsing time series'!G11</f>
+        <f>'method collapsing time series'!G4</f>
         <v>0.27272727299999999</v>
       </c>
       <c r="H11" s="2">
-        <f>'method collapsing time series'!H11</f>
+        <f>'method collapsing time series'!H4</f>
         <v>0.36363636399999999</v>
       </c>
-      <c r="I11" s="10">
-        <f>'method collapsing time series'!I11</f>
+      <c r="I11" s="9">
+        <f>'method collapsing time series'!I4</f>
         <v>0.45454545499999999</v>
       </c>
-      <c r="J11" s="10">
-        <f>'method collapsing time series'!J11</f>
+      <c r="J11" s="9">
+        <f>'method collapsing time series'!J4</f>
         <v>0.54545454500000001</v>
       </c>
-      <c r="K11" s="10">
-        <f>'method collapsing time series'!K11</f>
+      <c r="K11" s="9">
+        <f>'method collapsing time series'!K4</f>
         <v>0.63636363600000001</v>
       </c>
-      <c r="L11" s="10">
-        <f>'method collapsing time series'!L11</f>
+      <c r="L11" s="9">
+        <f>'method collapsing time series'!L4</f>
         <v>0.72727272700000001</v>
       </c>
-      <c r="M11" s="10">
-        <f>'method collapsing time series'!M11</f>
+      <c r="M11" s="9">
+        <f>'method collapsing time series'!M4</f>
         <v>0.81818181800000001</v>
       </c>
-      <c r="N11" s="10">
-        <f>'method collapsing time series'!N11</f>
+      <c r="N11" s="9">
+        <f>'method collapsing time series'!N4</f>
         <v>0.909090909</v>
       </c>
-      <c r="O11" s="10">
-        <f>'method collapsing time series'!O11</f>
+      <c r="O11" s="9">
+        <f>'method collapsing time series'!O4</f>
         <v>1</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11" s="9">
         <f>O11</f>
         <v>1</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="Q11" s="9">
         <f t="shared" ref="Q11:Y11" si="1">P11</f>
         <v>1</v>
       </c>
-      <c r="R11" s="10">
+      <c r="R11" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S11" s="10">
+      <c r="S11" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T11" s="10">
+      <c r="T11" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="U11" s="10">
+      <c r="U11" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V11" s="10">
+      <c r="V11" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="W11" s="10">
+      <c r="W11" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="X11" s="10">
+      <c r="X11" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Y11" s="10">
+      <c r="Y11" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:35" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B13">
         <f>SUM(E11:Y11)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:35" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B17">
         <f>B6</f>
         <v>2017</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <f t="shared" ref="C17" si="2">B17+1</f>
         <v>2018</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <f t="shared" ref="D17" si="3">C17+1</f>
         <v>2019</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <f t="shared" ref="E17" si="4">D17+1</f>
         <v>2020</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <f t="shared" ref="F17" si="5">E17+1</f>
         <v>2021</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="9">
         <f t="shared" ref="G17" si="6">F17+1</f>
         <v>2022</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="9">
         <f t="shared" ref="H17" si="7">G17+1</f>
         <v>2023</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="9">
         <f t="shared" ref="I17" si="8">H17+1</f>
         <v>2024</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="9">
         <f t="shared" ref="J17" si="9">I17+1</f>
         <v>2025</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="9">
         <f t="shared" ref="K17" si="10">J17+1</f>
         <v>2026</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="9">
         <f t="shared" ref="L17" si="11">K17+1</f>
         <v>2027</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M17" s="9">
         <f t="shared" ref="M17" si="12">L17+1</f>
         <v>2028</v>
       </c>
-      <c r="N17" s="10">
+      <c r="N17" s="9">
         <f t="shared" ref="N17" si="13">M17+1</f>
         <v>2029</v>
       </c>
-      <c r="O17" s="10">
+      <c r="O17" s="9">
         <f t="shared" ref="O17" si="14">N17+1</f>
         <v>2030</v>
       </c>
-      <c r="P17" s="10">
+      <c r="P17" s="9">
         <f t="shared" ref="P17" si="15">O17+1</f>
         <v>2031</v>
       </c>
-      <c r="Q17" s="10">
+      <c r="Q17" s="9">
         <f t="shared" ref="Q17" si="16">P17+1</f>
         <v>2032</v>
       </c>
-      <c r="R17" s="10">
+      <c r="R17" s="9">
         <f t="shared" ref="R17" si="17">Q17+1</f>
         <v>2033</v>
       </c>
-      <c r="S17" s="10">
+      <c r="S17" s="9">
         <f t="shared" ref="S17" si="18">R17+1</f>
         <v>2034</v>
       </c>
-      <c r="T17" s="10">
+      <c r="T17" s="9">
         <f t="shared" ref="T17" si="19">S17+1</f>
         <v>2035</v>
       </c>
-      <c r="U17" s="10">
+      <c r="U17" s="9">
         <f t="shared" ref="U17" si="20">T17+1</f>
         <v>2036</v>
       </c>
-      <c r="V17" s="10">
+      <c r="V17" s="9">
         <f t="shared" ref="V17" si="21">U17+1</f>
         <v>2037</v>
       </c>
-      <c r="W17" s="10">
+      <c r="W17" s="9">
         <f t="shared" ref="W17" si="22">V17+1</f>
         <v>2038</v>
       </c>
-      <c r="X17" s="10">
+      <c r="X17" s="9">
         <f t="shared" ref="X17" si="23">W17+1</f>
         <v>2039</v>
       </c>
-      <c r="Y17" s="10">
+      <c r="Y17" s="9">
         <f t="shared" ref="Y17" si="24">X17+1</f>
         <v>2040</v>
       </c>
-      <c r="Z17" s="10">
+      <c r="Z17" s="9">
         <f t="shared" ref="Z17" si="25">Y17+1</f>
         <v>2041</v>
       </c>
-      <c r="AA17" s="10">
+      <c r="AA17" s="9">
         <f t="shared" ref="AA17" si="26">Z17+1</f>
         <v>2042</v>
       </c>
-      <c r="AB17" s="10">
+      <c r="AB17" s="9">
         <f t="shared" ref="AB17" si="27">AA17+1</f>
         <v>2043</v>
       </c>
-      <c r="AC17" s="10">
+      <c r="AC17" s="9">
         <f t="shared" ref="AC17" si="28">AB17+1</f>
         <v>2044</v>
       </c>
-      <c r="AD17" s="10">
+      <c r="AD17" s="9">
         <f t="shared" ref="AD17" si="29">AC17+1</f>
         <v>2045</v>
       </c>
-      <c r="AE17" s="10">
+      <c r="AE17" s="9">
         <f t="shared" ref="AE17" si="30">AD17+1</f>
         <v>2046</v>
       </c>
-      <c r="AF17" s="10">
+      <c r="AF17" s="9">
         <f t="shared" ref="AF17" si="31">AE17+1</f>
         <v>2047</v>
       </c>
-      <c r="AG17" s="10">
+      <c r="AG17" s="9">
         <f t="shared" ref="AG17" si="32">AF17+1</f>
         <v>2048</v>
       </c>
-      <c r="AH17" s="10">
+      <c r="AH17" s="9">
         <f t="shared" ref="AH17" si="33">AG17+1</f>
         <v>2049</v>
       </c>
-      <c r="AI17" s="10">
+      <c r="AI17" s="9">
         <f t="shared" ref="AI17" si="34">AH17+1</f>
         <v>2050</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:35" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>A7</f>
         <v>air heat pump</v>
@@ -2521,11 +2508,11 @@
         <f>B18</f>
         <v>3.0773739742086752</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <f t="shared" ref="D18:E18" si="35">C18</f>
         <v>3.0773739742086752</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <f t="shared" si="35"/>
         <v>3.0773739742086752</v>
       </c>
@@ -2533,35 +2520,35 @@
         <f>E18+($O$18-$E$18)/10</f>
         <v>3.1004542790152403</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="9">
         <f t="shared" ref="G18:N18" si="36">F18+($O$18-$E$18)/10</f>
         <v>3.1235345838218054</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="9">
         <f t="shared" si="36"/>
         <v>3.1466148886283705</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="9">
         <f t="shared" si="36"/>
         <v>3.1696951934349356</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="9">
         <f t="shared" si="36"/>
         <v>3.1927754982415006</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="9">
         <f t="shared" si="36"/>
         <v>3.2158558030480657</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="9">
         <f t="shared" si="36"/>
         <v>3.2389361078546308</v>
       </c>
-      <c r="M18" s="10">
+      <c r="M18" s="9">
         <f t="shared" si="36"/>
         <v>3.2620164126611959</v>
       </c>
-      <c r="N18" s="10">
+      <c r="N18" s="9">
         <f t="shared" si="36"/>
         <v>3.285096717467761</v>
       </c>
@@ -2573,35 +2560,35 @@
         <f>O18+(-$O$18+$Y$18)/10</f>
         <v>3.3247179073856974</v>
       </c>
-      <c r="Q18" s="10">
+      <c r="Q18" s="9">
         <f t="shared" ref="Q18:X18" si="37">P18+(-$O$18+$Y$18)/10</f>
         <v>3.3412587924970691</v>
       </c>
-      <c r="R18" s="10">
+      <c r="R18" s="9">
         <f t="shared" si="37"/>
         <v>3.3577996776084409</v>
       </c>
-      <c r="S18" s="10">
+      <c r="S18" s="9">
         <f t="shared" si="37"/>
         <v>3.3743405627198126</v>
       </c>
-      <c r="T18" s="10">
+      <c r="T18" s="9">
         <f t="shared" si="37"/>
         <v>3.3908814478311844</v>
       </c>
-      <c r="U18" s="10">
+      <c r="U18" s="9">
         <f t="shared" si="37"/>
         <v>3.4074223329425561</v>
       </c>
-      <c r="V18" s="10">
+      <c r="V18" s="9">
         <f t="shared" si="37"/>
         <v>3.4239632180539279</v>
       </c>
-      <c r="W18" s="10">
+      <c r="W18" s="9">
         <f t="shared" si="37"/>
         <v>3.4405041031652996</v>
       </c>
-      <c r="X18" s="10">
+      <c r="X18" s="9">
         <f t="shared" si="37"/>
         <v>3.4570449882766714</v>
       </c>
@@ -2610,7 +2597,7 @@
         <v>3.4735858733880418</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f>A8</f>
         <v>heat pump water heater</v>
@@ -2623,11 +2610,11 @@
         <f>B19</f>
         <v>3.7</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <f t="shared" ref="D19:E19" si="38">C19</f>
         <v>3.7</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="9">
         <f t="shared" si="38"/>
         <v>3.7</v>
       </c>
@@ -2635,35 +2622,35 @@
         <f>E19+($O$19-$E$19)/10</f>
         <v>3.7185000000000001</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="9">
         <f t="shared" ref="G19:N19" si="39">F19+($O$19-$E$19)/10</f>
         <v>3.7370000000000001</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="9">
         <f t="shared" si="39"/>
         <v>3.7555000000000001</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="9">
         <f t="shared" si="39"/>
         <v>3.774</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="9">
         <f t="shared" si="39"/>
         <v>3.7925</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="9">
         <f t="shared" si="39"/>
         <v>3.8109999999999999</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="9">
         <f t="shared" si="39"/>
         <v>3.8294999999999999</v>
       </c>
-      <c r="M19" s="10">
+      <c r="M19" s="9">
         <f t="shared" si="39"/>
         <v>3.8479999999999999</v>
       </c>
-      <c r="N19" s="10">
+      <c r="N19" s="9">
         <f t="shared" si="39"/>
         <v>3.8664999999999998</v>
       </c>
@@ -2675,35 +2662,35 @@
         <f>O19+($Y$19-$O$19)/10</f>
         <v>3.8947125000000002</v>
       </c>
-      <c r="Q19" s="10">
+      <c r="Q19" s="9">
         <f t="shared" ref="Q19:X19" si="40">P19+($Y$19-$O$19)/10</f>
         <v>3.9044250000000003</v>
       </c>
-      <c r="R19" s="10">
+      <c r="R19" s="9">
         <f t="shared" si="40"/>
         <v>3.9141375000000003</v>
       </c>
-      <c r="S19" s="10">
+      <c r="S19" s="9">
         <f t="shared" si="40"/>
         <v>3.9238500000000003</v>
       </c>
-      <c r="T19" s="10">
+      <c r="T19" s="9">
         <f t="shared" si="40"/>
         <v>3.9335625000000003</v>
       </c>
-      <c r="U19" s="10">
+      <c r="U19" s="9">
         <f t="shared" si="40"/>
         <v>3.9432750000000003</v>
       </c>
-      <c r="V19" s="10">
+      <c r="V19" s="9">
         <f t="shared" si="40"/>
         <v>3.9529875000000003</v>
       </c>
-      <c r="W19" s="10">
+      <c r="W19" s="9">
         <f t="shared" si="40"/>
         <v>3.9627000000000003</v>
       </c>
-      <c r="X19" s="10">
+      <c r="X19" s="9">
         <f t="shared" si="40"/>
         <v>3.9724125000000003</v>
       </c>
@@ -2712,196 +2699,196 @@
         <v>3.9821250000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A22" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A23" s="10" t="s">
+    <row r="22" spans="1:35" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E23">
-        <f>E11*E18</f>
+        <f t="shared" ref="E23:Y23" si="41">E11*E18</f>
         <v>0.27976127066236811</v>
       </c>
-      <c r="F23" s="10">
-        <f>F11*F18</f>
+      <c r="F23" s="9">
+        <f t="shared" si="41"/>
         <v>0.56371896038467173</v>
       </c>
-      <c r="G23" s="10">
-        <f>G11*G18</f>
+      <c r="G23" s="9">
+        <f t="shared" si="41"/>
         <v>0.85187306916691086</v>
       </c>
-      <c r="H23" s="10">
-        <f>H11*H18</f>
+      <c r="H23" s="9">
+        <f t="shared" si="41"/>
         <v>1.1442235970090855</v>
       </c>
-      <c r="I23" s="10">
-        <f>I11*I18</f>
+      <c r="I23" s="9">
+        <f t="shared" si="41"/>
         <v>1.4407705439111957</v>
       </c>
-      <c r="J23" s="10">
-        <f>J11*J18</f>
+      <c r="J23" s="9">
+        <f t="shared" si="41"/>
         <v>1.7415139066804661</v>
       </c>
-      <c r="K23" s="10">
-        <f>K11*K18</f>
+      <c r="K23" s="9">
+        <f t="shared" si="41"/>
         <v>2.0464536916793672</v>
       </c>
-      <c r="L23" s="10">
-        <f>L11*L18</f>
+      <c r="L23" s="9">
+        <f t="shared" si="41"/>
         <v>2.3555898957382033</v>
       </c>
-      <c r="M23" s="10">
-        <f>M11*M18</f>
+      <c r="M23" s="9">
+        <f t="shared" si="41"/>
         <v>2.6689225188569754</v>
       </c>
-      <c r="N23" s="10">
-        <f>N11*N18</f>
+      <c r="N23" s="9">
+        <f t="shared" si="41"/>
         <v>2.986451561035683</v>
       </c>
-      <c r="O23" s="10">
-        <f>O11*O18</f>
+      <c r="O23" s="9">
+        <f t="shared" si="41"/>
         <v>3.3081770222743256</v>
       </c>
-      <c r="P23" s="10">
-        <f>P11*P18</f>
+      <c r="P23" s="9">
+        <f t="shared" si="41"/>
         <v>3.3247179073856974</v>
       </c>
-      <c r="Q23" s="10">
-        <f>Q11*Q18</f>
+      <c r="Q23" s="9">
+        <f t="shared" si="41"/>
         <v>3.3412587924970691</v>
       </c>
-      <c r="R23" s="10">
-        <f>R11*R18</f>
+      <c r="R23" s="9">
+        <f t="shared" si="41"/>
         <v>3.3577996776084409</v>
       </c>
-      <c r="S23" s="10">
-        <f>S11*S18</f>
+      <c r="S23" s="9">
+        <f t="shared" si="41"/>
         <v>3.3743405627198126</v>
       </c>
-      <c r="T23" s="10">
-        <f>T11*T18</f>
+      <c r="T23" s="9">
+        <f t="shared" si="41"/>
         <v>3.3908814478311844</v>
       </c>
-      <c r="U23" s="10">
-        <f>U11*U18</f>
+      <c r="U23" s="9">
+        <f t="shared" si="41"/>
         <v>3.4074223329425561</v>
       </c>
-      <c r="V23" s="10">
-        <f>V11*V18</f>
+      <c r="V23" s="9">
+        <f t="shared" si="41"/>
         <v>3.4239632180539279</v>
       </c>
-      <c r="W23" s="10">
-        <f>W11*W18</f>
+      <c r="W23" s="9">
+        <f t="shared" si="41"/>
         <v>3.4405041031652996</v>
       </c>
-      <c r="X23" s="10">
-        <f>X11*X18</f>
+      <c r="X23" s="9">
+        <f t="shared" si="41"/>
         <v>3.4570449882766714</v>
       </c>
-      <c r="Y23" s="10">
-        <f>Y11*Y18</f>
+      <c r="Y23" s="9">
+        <f t="shared" si="41"/>
         <v>3.4735858733880418</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A24" s="10" t="s">
+    <row r="24" spans="1:35" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E24">
-        <f>E11*E19</f>
+        <f t="shared" ref="E24:Y24" si="42">E11*E19</f>
         <v>0.33636363670000002</v>
       </c>
-      <c r="F24" s="10">
-        <f>F11*F19</f>
+      <c r="F24" s="9">
+        <f t="shared" si="42"/>
         <v>0.67609090976700004</v>
       </c>
-      <c r="G24" s="10">
-        <f>G11*G19</f>
+      <c r="G24" s="9">
+        <f t="shared" si="42"/>
         <v>1.019181819201</v>
       </c>
-      <c r="H24" s="10">
-        <f>H11*H19</f>
+      <c r="H24" s="9">
+        <f t="shared" si="42"/>
         <v>1.365636365002</v>
       </c>
-      <c r="I24" s="10">
-        <f>I11*I19</f>
+      <c r="I24" s="9">
+        <f t="shared" si="42"/>
         <v>1.71545454717</v>
       </c>
-      <c r="J24" s="10">
-        <f>J11*J19</f>
+      <c r="J24" s="9">
+        <f t="shared" si="42"/>
         <v>2.0686363619125001</v>
       </c>
-      <c r="K24" s="10">
-        <f>K11*K19</f>
+      <c r="K24" s="9">
+        <f t="shared" si="42"/>
         <v>2.425181816796</v>
       </c>
-      <c r="L24" s="10">
-        <f>L11*L19</f>
+      <c r="L24" s="9">
+        <f t="shared" si="42"/>
         <v>2.7850909080465001</v>
       </c>
-      <c r="M24" s="10">
-        <f>M11*M19</f>
+      <c r="M24" s="9">
+        <f t="shared" si="42"/>
         <v>3.1483636356639999</v>
       </c>
-      <c r="N24" s="10">
-        <f>N11*N19</f>
+      <c r="N24" s="9">
+        <f t="shared" si="42"/>
         <v>3.5149999996485</v>
       </c>
-      <c r="O24" s="10">
-        <f>O11*O19</f>
+      <c r="O24" s="9">
+        <f t="shared" si="42"/>
         <v>3.8850000000000002</v>
       </c>
-      <c r="P24" s="10">
-        <f>P11*P19</f>
+      <c r="P24" s="9">
+        <f t="shared" si="42"/>
         <v>3.8947125000000002</v>
       </c>
-      <c r="Q24" s="10">
-        <f>Q11*Q19</f>
+      <c r="Q24" s="9">
+        <f t="shared" si="42"/>
         <v>3.9044250000000003</v>
       </c>
-      <c r="R24" s="10">
-        <f>R11*R19</f>
+      <c r="R24" s="9">
+        <f t="shared" si="42"/>
         <v>3.9141375000000003</v>
       </c>
-      <c r="S24" s="10">
-        <f>S11*S19</f>
+      <c r="S24" s="9">
+        <f t="shared" si="42"/>
         <v>3.9238500000000003</v>
       </c>
-      <c r="T24" s="10">
-        <f>T11*T19</f>
+      <c r="T24" s="9">
+        <f t="shared" si="42"/>
         <v>3.9335625000000003</v>
       </c>
-      <c r="U24" s="10">
-        <f>U11*U19</f>
+      <c r="U24" s="9">
+        <f t="shared" si="42"/>
         <v>3.9432750000000003</v>
       </c>
-      <c r="V24" s="10">
-        <f>V11*V19</f>
+      <c r="V24" s="9">
+        <f t="shared" si="42"/>
         <v>3.9529875000000003</v>
       </c>
-      <c r="W24" s="10">
-        <f>W11*W19</f>
+      <c r="W24" s="9">
+        <f t="shared" si="42"/>
         <v>3.9627000000000003</v>
       </c>
-      <c r="X24" s="10">
-        <f>X11*X19</f>
+      <c r="X24" s="9">
+        <f t="shared" si="42"/>
         <v>3.9724125000000003</v>
       </c>
-      <c r="Y24" s="10">
-        <f>Y11*Y19</f>
+      <c r="Y24" s="9">
+        <f t="shared" si="42"/>
         <v>3.9821250000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:35" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A27" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A27" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B27">
@@ -2909,22 +2896,22 @@
         <v>53.378974941267956</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A28" s="10" t="s">
+    <row r="28" spans="1:35" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="9">
         <f>SUM(E24:Y24)</f>
         <v>62.324187499907502</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:35" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A31" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A31" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B31">
@@ -2932,8 +2919,8 @@
         <v>3.3361859338292472</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A32" s="10" t="s">
+    <row r="32" spans="1:35" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A32" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -2948,274 +2935,142 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-    </row>
-    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-    </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-    </row>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-    </row>
-    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-    </row>
-    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-    </row>
-    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-    </row>
-    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-    </row>
-    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-    </row>
-    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3">
         <v>2020</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F3" s="9">
         <v>2021</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G3" s="9">
         <v>2022</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H3" s="9">
         <v>2023</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I3" s="9">
         <v>2024</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J3" s="9">
         <v>2025</v>
       </c>
-      <c r="K10" s="10">
-        <f>J10+1</f>
+      <c r="K3" s="9">
+        <f>J3+1</f>
         <v>2026</v>
       </c>
-      <c r="L10" s="10">
-        <f t="shared" ref="L10:O10" si="0">K10+1</f>
+      <c r="L3" s="9">
+        <f t="shared" ref="L3:O3" si="0">K3+1</f>
         <v>2027</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M3" s="9">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N3" s="9">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O3" s="9">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="P10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10">
+      <c r="P3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9">
         <v>9.0909090999999997E-2</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F4" s="9">
         <v>0.18181818199999999</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G4" s="9">
         <v>0.27272727299999999</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H4" s="9">
         <v>0.36363636399999999</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I4" s="9">
         <v>0.45454545499999999</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J4" s="9">
         <v>0.54545454500000001</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K4" s="9">
         <v>0.63636363600000001</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L4" s="9">
         <v>0.72727272700000001</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M4" s="9">
         <v>0.81818181800000001</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N4" s="9">
         <v>0.909090909</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O4" s="9">
         <v>1</v>
       </c>
-      <c r="P11">
+      <c r="P4">
         <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3231,14 +3086,14 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.1796875" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" customWidth="1"/>
-    <col min="12" max="12" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="12" max="12" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -3247,7 +3102,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -3256,21 +3111,21 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="E3" s="9" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>27</v>
       </c>
       <c r="I4" s="4"/>
@@ -3279,14 +3134,14 @@
       <c r="L4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -3305,10 +3160,10 @@
       <c r="L5" s="5">
         <v>1716</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-    </row>
-    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -3335,16 +3190,16 @@
       <c r="L6" s="5">
         <v>1648.3405714285716</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="9">
         <f>(L6-L5)/5</f>
         <v>-13.531885714285682</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="9">
         <f>M6/L5</f>
         <v>-7.8857142857142667E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2030</v>
       </c>
@@ -3357,7 +3212,7 @@
       <c r="E7">
         <v>3.75</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <f>(E7-E6)/10</f>
         <v>7.4999999999999997E-2</v>
       </c>
@@ -3371,16 +3226,16 @@
       <c r="L7" s="5">
         <v>1513.0217142857143</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="9">
         <f>(L7-L6)/10</f>
         <v>-13.531885714285727</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="9">
         <f>M7/L6</f>
         <v>-8.2093991671624098E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2040</v>
       </c>
@@ -3393,11 +3248,11 @@
       <c r="E8">
         <v>4.25</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <f>(E8-E7)/10</f>
         <v>0.05</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <f>F8/10</f>
         <v>5.0000000000000001E-3</v>
       </c>
@@ -3407,16 +3262,16 @@
       <c r="L8" s="5">
         <v>1377.7028571428571</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="9">
         <f>(L8-L7)/10</f>
         <v>-13.531885714285727</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="9">
         <f>M8/L7</f>
         <v>-8.9436163318211363E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2050</v>
       </c>
@@ -3429,11 +3284,11 @@
       <c r="E9">
         <v>4.3962485345838216</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <f>(E9-E8)/10</f>
         <v>1.4624853458382159E-2</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <f>F9/E8</f>
         <v>3.441141990207567E-3</v>
       </c>
@@ -3443,16 +3298,16 @@
       <c r="L9" s="5">
         <v>1242.384</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="9">
         <f>(L9-L8)/10</f>
         <v>-13.531885714285703</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="9">
         <f>M9/L8</f>
         <v>-9.8220640569394949E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -3470,173 +3325,173 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>2015</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>1990</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>2.4500000000000002</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>2020</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>1650</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>3</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <f>(E6-E5)/5</f>
         <v>0.10999999999999996</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <f>F6/5</f>
         <v>2.1999999999999992E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>2030</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>1350</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>3.5</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <f>(E7-E6)/10</f>
         <v>0.05</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <f>F7/10</f>
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>2040</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>1100</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>3.75</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <f>(E8-E7)/10</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <f>F8/10</f>
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>2050</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>1000</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>3.75</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <f>(E9-E8)/10</f>
         <v>0</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <f>F9/E8</f>
         <v>0</v>
       </c>
